--- a/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/2. 표시 형식/임직원 연락처 정보.xlsx
+++ b/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/2. 표시 형식/임직원 연락처 정보.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gilbut\Desktop\예제\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\부록_엑셀_이럴땐이렇게\1. 입력수정\2. 표시 형식\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34676E9-E13C-4C33-A1B3-DB05AE14AA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A969554-4195-431E-B711-35FEAD729EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24132" yWindow="3252" windowWidth="21180" windowHeight="16692" xr2:uid="{0F5FA5E8-36F5-4789-A76D-885869DEDB42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{0F5FA5E8-36F5-4789-A76D-885869DEDB42}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -18,28 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>이승민</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +134,10 @@
   </si>
   <si>
     <t>임직원 연락처 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -152,6 +145,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0##########"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -235,7 +231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,6 +242,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -582,29 +584,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF98CD85-0C8A-4993-B8CA-1E2EDDD0293C}">
-  <dimension ref="B1:D20"/>
+  <dimension ref="B1:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.8984375" customWidth="1"/>
-    <col min="2" max="2" width="13.19921875" customWidth="1"/>
-    <col min="3" max="3" width="9.69921875" customWidth="1"/>
-    <col min="4" max="4" width="16.69921875" customWidth="1"/>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:4" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
@@ -614,180 +616,183 @@
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="F4" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>1012345678</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>1023456789</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>1034567890</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>1046789012</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>1057890123</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>1069121345</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>1071234567</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>1082345678</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>1093456789</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>1010231245</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>1023016789</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>1034120793</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4">
         <v>1045231894</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>1056342915</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>1067453916</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>1078564017</v>
       </c>
     </row>
